--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE4F7D1-FF41-4B02-BEFC-7176DA89E4BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654D5CB-76CA-433A-96F4-6036E699F897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>2. Region</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>Less than 15 years</t>
-  </si>
-  <si>
-    <t>Label with individual ID (Is it possible to generate sample ID values based on individual IDs?)</t>
   </si>
   <si>
     <t>eth_sch_sth_remaping_2_registration_202105</t>
@@ -1030,11 +1027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1248,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1268,7 +1265,7 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>88</v>
@@ -1430,9 +1427,6 @@
       <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1446,9 +1440,6 @@
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>72</v>
@@ -1621,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
@@ -1740,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>202105</v>
@@ -1755,23 +1746,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -1994,10 +1968,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2020,20 +2022,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654D5CB-76CA-433A-96F4-6036E699F897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D9356-6E38-4607-9CFE-F9BECC843879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1170" windowWidth="28005" windowHeight="14055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>2. Region</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>4. Kebele name</t>
-  </si>
-  <si>
-    <t>5. Record the GPS coordinates of the village</t>
   </si>
   <si>
     <t>6. School name</t>
@@ -111,9 +108,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>2. Ethiopia - Reassessment Form Participant</t>
-  </si>
-  <si>
     <t>p_region</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>p_kebele</t>
   </si>
   <si>
-    <t>p_location</t>
-  </si>
-  <si>
     <t>p_school</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>p_end</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>2. Technician's code</t>
   </si>
   <si>
-    <t>Is it possible to generate individual ID values?</t>
-  </si>
-  <si>
     <t>8. Code of pupil</t>
   </si>
   <si>
@@ -300,19 +285,73 @@
     <t>Between 1 and 8</t>
   </si>
   <si>
-    <t>.&lt;15</t>
-  </si>
-  <si>
-    <t>Less than 15 years</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_2_registration_202105</t>
-  </si>
-  <si>
     <t>p_school_other</t>
   </si>
   <si>
     <t>p_school_code_other</t>
+  </si>
+  <si>
+    <t>.&gt;=9 and .&lt;=14</t>
+  </si>
+  <si>
+    <t>.&lt;=${p_age}</t>
+  </si>
+  <si>
+    <t>p_stoolsample1_ID</t>
+  </si>
+  <si>
+    <t>selected(${p_stoolsample1}, '1.yes')</t>
+  </si>
+  <si>
+    <t>p_urinesample1_ID</t>
+  </si>
+  <si>
+    <t>selected(${p_urinesample1}, '1.yes')</t>
+  </si>
+  <si>
+    <t>p_stoolsample1_ID2</t>
+  </si>
+  <si>
+    <t>p_urinesample1_ID2</t>
+  </si>
+  <si>
+    <t>Re-enter the unique ID</t>
+  </si>
+  <si>
+    <t>Re-enter the unique code</t>
+  </si>
+  <si>
+    <t>The repeated code must be the same</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The format must be 123-123456-123</t>
+  </si>
+  <si>
+    <t>Please enter the unique code of this sample (must be entered as 123-123456-123 number only with dashes)</t>
+  </si>
+  <si>
+    <t>Between 9 and 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not greater than the age of the participant </t>
+  </si>
+  <si>
+    <t>. =${p_stoolsample1_ID}</t>
+  </si>
+  <si>
+    <t>. =${p_urinesample1_ID}</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_2_registration_202105_V2</t>
+  </si>
+  <si>
+    <t>202105_V2</t>
+  </si>
+  <si>
+    <t>2. Ethiopia - Reassessment Form Participant V2</t>
   </si>
 </sst>
 </file>
@@ -391,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -414,11 +453,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -436,10 +490,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,13 +1084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21:D22"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,55 +1111,55 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1115,197 +1174,183 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>62</v>
+      <c r="A4" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>62</v>
+      <c r="A5" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>62</v>
+      <c r="A6" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>62</v>
+      <c r="A7" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1320,151 +1365,273 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,13 +1796,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,24 +1811,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,24 +1838,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1714,30 +1881,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <v>202105</v>
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1746,6 +1913,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -1968,38 +2152,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2022,9 +2178,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_2_registration_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D9356-6E38-4607-9CFE-F9BECC843879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC166E-A1FB-4042-B17C-FECECEA63A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1170" windowWidth="28005" windowHeight="14055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>2. Region</t>
   </si>
@@ -345,13 +345,10 @@
     <t>. =${p_urinesample1_ID}</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_2_registration_202105_V2</t>
-  </si>
-  <si>
-    <t>202105_V2</t>
-  </si>
-  <si>
-    <t>2. Ethiopia - Reassessment Form Participant V2</t>
+    <t>2. Ethiopia – Reassessment Registration Form V3</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_2_registration_202105_v3</t>
   </si>
 </sst>
 </file>
@@ -1084,32 +1081,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.87890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.1171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1171875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5859375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.87890625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="54.29296875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1151,110 +1148,133 @@
       </c>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1288,7 +1308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1305,7 +1325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1319,189 +1339,192 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="1" t="s">
+    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A21" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>90</v>
@@ -1511,69 +1534,69 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A24" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>92</v>
@@ -1583,54 +1606,28 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1784,17 +1781,17 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="8" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="21.87890625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1171875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="14.703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.5859375" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -1805,11 +1802,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1831,12 +1828,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -1868,18 +1865,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.5859375" customWidth="1"/>
+    <col min="2" max="2" width="41.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.41015625" customWidth="1"/>
+    <col min="4" max="4" width="22.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -1893,15 +1890,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
         <v>106</v>
+      </c>
+      <c r="C2">
+        <v>2021053</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
